--- a/excels/materiales/11Electrico.xlsx
+++ b/excels/materiales/11Electrico.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28240" windowHeight="18660"/>
+    <workbookView xWindow="360" yWindow="465" windowWidth="19320" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -159,22 +154,123 @@
   </si>
   <si>
     <t>Ch tablero designation tp-a em1627-15</t>
+  </si>
+  <si>
+    <t>Eagle enchufe polar p/ext 15A 125V NTP 2867</t>
+  </si>
+  <si>
+    <t>Gaza EMT sencilla de 12MM 1/2"</t>
+  </si>
+  <si>
+    <t>TL bombi LED 3000D A19-LED/10W</t>
+  </si>
+  <si>
+    <t>BV bombi espiral 20W T2 luz blanca E33017</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>DW2223 cubo magnetico hexa 3/8 x 2-9/16</t>
+  </si>
+  <si>
+    <t>EMT (UL) tubo de 12MM 1/2"x 3mts UL</t>
+  </si>
+  <si>
+    <t>PVC tubo conduit tipo A 12MM 1/2"X 3M UL GR CAM/CEM</t>
+  </si>
+  <si>
+    <t>3M tape electrico super 33 negro 3/4x 20MTS</t>
+  </si>
+  <si>
+    <t>Square D breaker enchufar 1P/20A QO120</t>
+  </si>
+  <si>
+    <t>Square D breaker enchufar 2P/20A QO220</t>
+  </si>
+  <si>
+    <t>Eagle base para fotocelda con soporte 6889</t>
+  </si>
+  <si>
+    <t>Eagle fotocelda LUMNIA 110/220V 1000W NTP 6890</t>
+  </si>
+  <si>
+    <t>SD centro carga empotrable 3H 70A QOL 2F</t>
+  </si>
+  <si>
+    <t>Spander fisher nylon original S-7 EMP 100</t>
+  </si>
+  <si>
+    <t>Tornillo metal CAB-CIL SPH 8X1 1/2</t>
+  </si>
+  <si>
+    <t>EMT (UL) conector de 12MM 1/2 pesado UL</t>
+  </si>
+  <si>
+    <t>Tubo abastro conectores metalicos 1/2x1/2x55cm largo</t>
+  </si>
+  <si>
+    <t>Manguera de LED 50mts 7761LED-3000K</t>
+  </si>
+  <si>
+    <t>Accesorio conector para 7761 CONECT7761</t>
+  </si>
+  <si>
+    <t>Eagle toma polarizado p/ext NTP222</t>
+  </si>
+  <si>
+    <t>AC-77873 control abanico-timer WESTING HOUSE</t>
+  </si>
+  <si>
+    <t>Timer digital TE102</t>
+  </si>
+  <si>
+    <t>DW1224Z broca cobalto 3/8 HSS SPLIT</t>
+  </si>
+  <si>
+    <t>DW broca SDS PLUS 1/2"X12"</t>
+  </si>
+  <si>
+    <t>UTP cable red negro CAT 5E P/EXTERIOR C/GELxmt</t>
+  </si>
+  <si>
+    <t>Cordon cable TSJ 2x14xmetro</t>
+  </si>
+  <si>
+    <t>Cable aluminio XHHW-2 #4 AWG</t>
+  </si>
+  <si>
+    <t>EMT tapa rectangular c/hueco metal</t>
+  </si>
+  <si>
+    <t>Tornillo metal CAB-CIL SPH 10X1 1/2</t>
+  </si>
+  <si>
+    <t>Espander fisher nylon originals S-8</t>
+  </si>
+  <si>
+    <t>Conector comprension #7 4/0-3/0 A 4/0-3/0</t>
+  </si>
+  <si>
+    <t>Conector comprension #2 1/0-3 2/0-2 A 2-5 1-6</t>
+  </si>
+  <si>
+    <t>Grapa con clavo acero de 8MM x unidad</t>
+  </si>
+  <si>
+    <t>Pvc curva conduit tipo A 12MM 1/2 UL GR CAM/CEM</t>
+  </si>
+  <si>
+    <t>EMT conector CMTSJ25 de 1"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -615,102 +711,106 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -765,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,7 +900,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,64 +1108,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="B2" s="6">
         <v>11001</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1074,7 +1175,7 @@
       <c r="E2" s="6">
         <v>1488.5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1090,11 +1191,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3" s="6">
         <v>11002</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1103,7 +1204,7 @@
       <c r="E3" s="6">
         <v>805</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1119,11 +1220,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="B4" s="6">
         <v>11003</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1132,7 +1233,7 @@
       <c r="E4" s="6">
         <v>1075.22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1148,11 +1249,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5" s="6">
         <v>11004</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1161,7 +1262,7 @@
       <c r="E5" s="6">
         <v>6473.45</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1177,11 +1278,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6" s="6">
         <v>11005</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1190,7 +1291,7 @@
       <c r="E6" s="6">
         <v>18615.04</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1206,11 +1307,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="6">
         <v>11006</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1219,7 +1320,7 @@
       <c r="E7" s="6">
         <v>861977.88</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1235,20 +1336,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8" s="6">
         <v>11007</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="6">
         <v>230.09</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1264,20 +1365,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="B9" s="6">
         <v>11008</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="6">
         <v>4017.7</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1293,20 +1394,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="B10" s="6">
         <v>11009</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="6">
         <v>2800.89</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1322,20 +1423,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11" s="6">
         <v>11010</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="6">
         <v>393.81</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1351,20 +1452,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12" s="6">
         <v>11011</v>
       </c>
-      <c r="C12" s="5">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6">
         <v>477.88</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1380,20 +1481,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13" s="6">
         <v>11012</v>
       </c>
-      <c r="C13" s="5">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="6">
         <v>584.07000000000005</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1409,18 +1510,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" s="6">
         <v>11013</v>
       </c>
-      <c r="C14" s="5">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1436,20 +1537,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15" s="6">
         <v>11014</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="6">
         <v>438.05</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1465,20 +1566,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16" s="6">
         <v>11015</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="6">
         <v>1486.73</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1494,20 +1595,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" s="6">
         <v>11016</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="6">
         <v>1482.3</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1523,20 +1624,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" s="6">
         <v>11017</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="6">
         <v>3168.14</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1552,20 +1653,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" s="6">
         <v>11018</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="6">
         <v>92.92</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1580,21 +1681,24 @@
       <c r="J19" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="6">
         <v>11019</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="6">
         <v>128.32</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1610,20 +1714,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" s="6">
         <v>11020</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="6">
         <v>203.54</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1639,20 +1743,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" s="6">
         <v>11021</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="6">
         <v>23400</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1668,20 +1772,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" s="6">
         <v>11022</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="6">
         <v>4004.42</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1697,11 +1801,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" s="6">
         <v>11023</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1710,7 +1814,7 @@
       <c r="E24" s="6">
         <v>181.42</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1726,11 +1830,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" s="6">
         <v>11024</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1739,7 +1843,7 @@
       <c r="E25" s="6">
         <v>181.42</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1754,12 +1858,15 @@
       <c r="J25" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="6">
         <v>11025</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1768,7 +1875,7 @@
       <c r="E26" s="6">
         <v>181.42</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1783,12 +1890,15 @@
       <c r="J26" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" s="6">
         <v>11026</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1797,7 +1907,7 @@
       <c r="E27" s="6">
         <v>181.42</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1812,12 +1922,15 @@
       <c r="J27" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" s="6">
         <v>11027</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1826,7 +1939,7 @@
       <c r="E28" s="6">
         <v>3580.5</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1842,11 +1955,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" s="6">
         <v>11028</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1855,7 +1968,7 @@
       <c r="E29" s="6">
         <v>455.75</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -1871,11 +1984,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" s="6">
         <v>11029</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1884,7 +1997,7 @@
       <c r="E30" s="6">
         <v>139.82</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1900,11 +2013,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" s="6">
         <v>11030</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1913,7 +2026,7 @@
       <c r="E31" s="6">
         <v>796.46</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1929,11 +2042,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12">
       <c r="B32" s="6">
         <v>11031</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1942,7 +2055,7 @@
       <c r="E32" s="6">
         <v>1022.12</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -1956,6 +2069,1123 @@
       </c>
       <c r="J32" s="1">
         <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="3">
+        <v>11032</v>
+      </c>
+      <c r="C33" s="3">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3">
+        <v>973.45</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="3">
+        <v>13</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>11</v>
+      </c>
+      <c r="L33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="6">
+        <v>11033</v>
+      </c>
+      <c r="C34" s="3">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3">
+        <v>34.51</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="1">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="3">
+        <v>11034</v>
+      </c>
+      <c r="C35" s="3">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4386.5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1">
+        <v>13</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="6">
+        <v>11035</v>
+      </c>
+      <c r="C36" s="3">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4185</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4</v>
+      </c>
+      <c r="L36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="3">
+        <v>11036</v>
+      </c>
+      <c r="C37" s="3">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1464.6</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="3">
+        <v>13</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="6">
+        <v>11037</v>
+      </c>
+      <c r="C38" s="3">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1765.49</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3">
+        <v>13</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4</v>
+      </c>
+      <c r="L38" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="3">
+        <v>11038</v>
+      </c>
+      <c r="C39" s="3">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="3">
+        <v>995.58</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3">
+        <v>13</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4</v>
+      </c>
+      <c r="L39" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="6">
+        <v>11039</v>
+      </c>
+      <c r="C40" s="3">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2915.93</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="3">
+        <v>13</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4</v>
+      </c>
+      <c r="L40" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="3">
+        <v>11040</v>
+      </c>
+      <c r="C41" s="3">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7446.9</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="3">
+        <v>13</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="L41" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="6">
+        <v>11041</v>
+      </c>
+      <c r="C42" s="3">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15517.7</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3">
+        <v>13</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4</v>
+      </c>
+      <c r="L42" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="3">
+        <v>11042</v>
+      </c>
+      <c r="C43" s="3">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2902.65</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3">
+        <v>13</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4</v>
+      </c>
+      <c r="L43" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="6">
+        <v>11043</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6606.19</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="3">
+        <v>13</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4</v>
+      </c>
+      <c r="L44" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="3">
+        <v>11044</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18800.88</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3">
+        <v>13</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4</v>
+      </c>
+      <c r="L45" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="6">
+        <v>11045</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13.27</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="3">
+        <v>13</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>4</v>
+      </c>
+      <c r="L46" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="3">
+        <v>11046</v>
+      </c>
+      <c r="C47" s="3">
+        <v>46</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="3">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3">
+        <v>13</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4</v>
+      </c>
+      <c r="L47" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="6">
+        <v>11047</v>
+      </c>
+      <c r="C48" s="3">
+        <v>47</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="3">
+        <v>230.09</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="3">
+        <v>13</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>4</v>
+      </c>
+      <c r="L48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="3">
+        <v>11048</v>
+      </c>
+      <c r="C49" s="3">
+        <v>48</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2176.9899999999998</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="3">
+        <v>13</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4</v>
+      </c>
+      <c r="L49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="6">
+        <v>11049</v>
+      </c>
+      <c r="C50" s="3">
+        <v>49</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="3">
+        <v>159898.23000000001</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3">
+        <v>13</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3">
+        <v>4</v>
+      </c>
+      <c r="L50" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="3">
+        <v>11050</v>
+      </c>
+      <c r="C51" s="3">
+        <v>50</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="3">
+        <v>6938.05</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="3">
+        <v>13</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3">
+        <v>4</v>
+      </c>
+      <c r="L51" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="6">
+        <v>11051</v>
+      </c>
+      <c r="C52" s="3">
+        <v>51</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1017.7</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="3">
+        <v>13</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4</v>
+      </c>
+      <c r="L52" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="3">
+        <v>11052</v>
+      </c>
+      <c r="C53" s="3">
+        <v>52</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="3">
+        <v>15734.51</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3">
+        <v>13</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3">
+        <v>4</v>
+      </c>
+      <c r="L53" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="6">
+        <v>11053</v>
+      </c>
+      <c r="C54" s="3">
+        <v>53</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="3">
+        <v>22141.59</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="3">
+        <v>13</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="3">
+        <v>11054</v>
+      </c>
+      <c r="C55" s="3">
+        <v>54</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="3">
+        <v>5690.27</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="3">
+        <v>13</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3">
+        <v>4</v>
+      </c>
+      <c r="L55" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="6">
+        <v>11055</v>
+      </c>
+      <c r="C56" s="3">
+        <v>55</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="3">
+        <v>6336.28</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="3">
+        <v>13</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <v>4</v>
+      </c>
+      <c r="L56" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="3">
+        <v>11056</v>
+      </c>
+      <c r="C57" s="3">
+        <v>56</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="3">
+        <v>809.73</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="3">
+        <v>13</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4</v>
+      </c>
+      <c r="L57" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="6">
+        <v>11057</v>
+      </c>
+      <c r="C58" s="3">
+        <v>57</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="3">
+        <v>513.27</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="3">
+        <v>13</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4</v>
+      </c>
+      <c r="L58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="3">
+        <v>11058</v>
+      </c>
+      <c r="C59" s="3">
+        <v>58</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="3">
+        <v>384.96</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="3">
+        <v>13</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4</v>
+      </c>
+      <c r="L59" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="6">
+        <v>11059</v>
+      </c>
+      <c r="C60" s="3">
+        <v>59</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="3">
+        <v>128.32</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="3">
+        <v>13</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4</v>
+      </c>
+      <c r="L60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="3">
+        <v>11060</v>
+      </c>
+      <c r="C61" s="3">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="3">
+        <v>23.76</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="3">
+        <v>13</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4</v>
+      </c>
+      <c r="L61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="6">
+        <v>11061</v>
+      </c>
+      <c r="C62" s="3">
+        <v>61</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45.13</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="3">
+        <v>13</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4</v>
+      </c>
+      <c r="L62" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="3">
+        <v>11062</v>
+      </c>
+      <c r="C63" s="3">
+        <v>62</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2327.4299999999998</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="3">
+        <v>13</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3">
+        <v>4</v>
+      </c>
+      <c r="L63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="6">
+        <v>11063</v>
+      </c>
+      <c r="C64" s="3">
+        <v>63</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="3">
+        <v>685.84</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="3">
+        <v>13</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="3">
+        <v>11064</v>
+      </c>
+      <c r="C65" s="3">
+        <v>64</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="3">
+        <v>13</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3">
+        <v>4</v>
+      </c>
+      <c r="L65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="6">
+        <v>11065</v>
+      </c>
+      <c r="C66" s="3">
+        <v>65</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="3">
+        <v>447.57</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="3">
+        <v>13</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4</v>
+      </c>
+      <c r="L66" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="3">
+        <v>11066</v>
+      </c>
+      <c r="C67" s="3">
+        <v>66</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="3">
+        <v>398.23</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="3">
+        <v>13</v>
+      </c>
+      <c r="I67" s="3">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3">
+        <v>4</v>
+      </c>
+      <c r="L67" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1963,5 +3193,6 @@
     <sortCondition ref="B2:B32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excels/materiales/11Electrico.xlsx
+++ b/excels/materiales/11Electrico.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/materiales/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="19320" windowHeight="15480"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="24540" windowHeight="16800"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -441,6 +441,24 @@
   </si>
   <si>
     <t>398.23</t>
+  </si>
+  <si>
+    <t>DW47451 Disco Diamantado 4 1/2" Continuo ceramina Porcelanato</t>
+  </si>
+  <si>
+    <t>P24326-35 Empotrable LED 8W 3000K Downlight</t>
+  </si>
+  <si>
+    <t>PVC curva conduit tipo A 16mm 3/4" UL GR CAM/CEM</t>
+  </si>
+  <si>
+    <t>Metabo disco metal 230x1,9x22,2 Recto A36</t>
+  </si>
+  <si>
+    <t>DW8310 disco flap 4 1/2" grano 120</t>
+  </si>
+  <si>
+    <t>Broca SDS Plus 3/8" x 6" DW5427</t>
   </si>
 </sst>
 </file>
@@ -945,7 +963,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -959,6 +977,16 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1301,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1312,13 +1340,11 @@
     <col min="1" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" style="12" customWidth="1"/>
+    <col min="8" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1335,13 +1361,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1370,13 +1396,13 @@
       <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5">
@@ -1406,13 +1432,13 @@
       <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="13">
         <v>805</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="5">
@@ -1442,13 +1468,13 @@
       <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="5">
@@ -1478,13 +1504,13 @@
       <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="5">
@@ -1514,13 +1540,13 @@
       <c r="D6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>85</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="5">
@@ -1550,13 +1576,13 @@
       <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="13" t="s">
         <v>86</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="5">
@@ -1586,13 +1612,13 @@
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>87</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="5">
@@ -1622,13 +1648,13 @@
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="5">
@@ -1658,13 +1684,13 @@
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="13" t="s">
         <v>89</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="5">
@@ -1694,13 +1720,13 @@
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="13" t="s">
         <v>90</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="5">
@@ -1730,13 +1756,13 @@
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="13" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="5">
@@ -1766,13 +1792,13 @@
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="13" t="s">
         <v>92</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="5">
@@ -1802,13 +1828,13 @@
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="13">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="5">
@@ -1838,13 +1864,13 @@
       <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="5">
@@ -1874,13 +1900,13 @@
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="5">
@@ -1910,13 +1936,13 @@
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="5">
@@ -1946,13 +1972,13 @@
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="13" t="s">
         <v>96</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="5">
@@ -1982,13 +2008,13 @@
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="5">
@@ -2018,13 +2044,13 @@
       <c r="D20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="13" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="5">
@@ -2054,13 +2080,13 @@
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="5">
@@ -2090,13 +2116,13 @@
       <c r="D22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="13">
         <v>23400</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="5">
@@ -2126,13 +2152,13 @@
       <c r="D23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="5">
@@ -2162,13 +2188,13 @@
       <c r="D24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="5">
@@ -2198,13 +2224,13 @@
       <c r="D25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="5">
@@ -2234,13 +2260,13 @@
       <c r="D26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="5">
@@ -2270,13 +2296,13 @@
       <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="5">
@@ -2306,13 +2332,13 @@
       <c r="D28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="13" t="s">
         <v>102</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="5">
@@ -2342,13 +2368,13 @@
       <c r="D29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="5">
@@ -2378,13 +2404,13 @@
       <c r="D30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="13" t="s">
         <v>104</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="5">
@@ -2414,13 +2440,13 @@
       <c r="D31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="5">
@@ -2450,13 +2476,13 @@
       <c r="D32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="13" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="5">
@@ -2486,13 +2512,13 @@
       <c r="D33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="5">
         <v>13</v>
       </c>
@@ -2520,13 +2546,13 @@
       <c r="D34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>108</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="5">
@@ -2536,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K34" s="9">
         <v>10</v>
@@ -2556,13 +2582,13 @@
       <c r="D35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>109</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="5">
@@ -2572,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K35" s="9">
         <v>5</v>
@@ -2592,13 +2618,13 @@
       <c r="D36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="6">
         <v>4185</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H36" s="5">
@@ -2608,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K36" s="9">
         <v>5</v>
@@ -2628,13 +2654,13 @@
       <c r="D37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>110</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="5">
@@ -2644,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K37" s="9">
         <v>5</v>
@@ -2664,13 +2690,13 @@
       <c r="D38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>111</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="5">
@@ -2680,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K38" s="9">
         <v>10</v>
@@ -2700,13 +2726,13 @@
       <c r="D39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>112</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="5">
@@ -2716,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K39" s="9">
         <v>10</v>
@@ -2736,13 +2762,13 @@
       <c r="D40" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>113</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="5">
@@ -2752,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K40" s="9">
         <v>10</v>
@@ -2772,13 +2798,13 @@
       <c r="D41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>114</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="5">
@@ -2788,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K41" s="9">
         <v>10</v>
@@ -2808,13 +2834,13 @@
       <c r="D42" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>115</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="5">
@@ -2824,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K42" s="9">
         <v>10</v>
@@ -2844,13 +2870,13 @@
       <c r="D43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>116</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="5">
@@ -2860,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K43" s="9">
         <v>5</v>
@@ -2880,13 +2906,13 @@
       <c r="D44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>117</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="5">
@@ -2896,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K44" s="9">
         <v>5</v>
@@ -2916,13 +2942,13 @@
       <c r="D45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>118</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="5">
@@ -2932,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K45" s="9">
         <v>10</v>
@@ -2952,13 +2978,13 @@
       <c r="D46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="5">
@@ -2968,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K46" s="9">
         <v>5</v>
@@ -2988,13 +3014,13 @@
       <c r="D47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>120</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="5">
@@ -3004,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K47" s="9">
         <v>5</v>
@@ -3024,13 +3050,13 @@
       <c r="D48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>87</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="5">
@@ -3040,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K48" s="9">
         <v>5</v>
@@ -3060,13 +3086,13 @@
       <c r="D49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="5">
@@ -3076,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K49" s="5">
         <v>5</v>
@@ -3096,13 +3122,13 @@
       <c r="D50" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="5">
@@ -3112,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K50" s="9">
         <v>5</v>
@@ -3132,13 +3158,13 @@
       <c r="D51" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
         <v>123</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="5">
@@ -3148,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K51" s="9">
         <v>5</v>
@@ -3168,13 +3194,13 @@
       <c r="D52" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="5">
@@ -3184,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K52" s="9">
         <v>5</v>
@@ -3204,13 +3230,13 @@
       <c r="D53" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="6" t="s">
         <v>125</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="5">
@@ -3220,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K53" s="9">
         <v>5</v>
@@ -3240,13 +3266,13 @@
       <c r="D54" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="5">
@@ -3256,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K54" s="9">
         <v>0</v>
@@ -3276,13 +3302,13 @@
       <c r="D55" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="6" t="s">
         <v>127</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="5">
@@ -3292,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K55" s="9">
         <v>5</v>
@@ -3312,13 +3338,13 @@
       <c r="D56" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="6" t="s">
         <v>128</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="5">
@@ -3328,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K56" s="9">
         <v>5</v>
@@ -3348,13 +3374,13 @@
       <c r="D57" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="6" t="s">
         <v>129</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="5">
@@ -3364,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K57" s="5">
         <v>10</v>
@@ -3384,13 +3410,13 @@
       <c r="D58" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="6" t="s">
         <v>130</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="5">
@@ -3400,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K58" s="5">
         <v>5</v>
@@ -3420,13 +3446,13 @@
       <c r="D59" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="6" t="s">
         <v>131</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="5">
@@ -3436,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K59" s="5">
         <v>10</v>
@@ -3456,13 +3482,13 @@
       <c r="D60" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="5">
@@ -3472,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K60" s="5">
         <v>5</v>
@@ -3492,13 +3518,13 @@
       <c r="D61" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="6" t="s">
         <v>132</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="5">
@@ -3508,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K61" s="5">
         <v>5</v>
@@ -3528,13 +3554,13 @@
       <c r="D62" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="6" t="s">
         <v>133</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="5">
@@ -3544,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K62" s="5">
         <v>10</v>
@@ -3564,13 +3590,13 @@
       <c r="D63" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="6" t="s">
         <v>134</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="5">
@@ -3580,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K63" s="5">
         <v>5</v>
@@ -3600,13 +3626,13 @@
       <c r="D64" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="5">
@@ -3616,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K64" s="5">
         <v>5</v>
@@ -3636,13 +3662,13 @@
       <c r="D65" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="5">
@@ -3652,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K65" s="5">
         <v>5</v>
@@ -3672,13 +3698,13 @@
       <c r="D66" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="5">
@@ -3688,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K66" s="5">
         <v>10</v>
@@ -3708,13 +3734,13 @@
       <c r="D67" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="5">
@@ -3724,12 +3750,237 @@
         <v>1</v>
       </c>
       <c r="J67" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K67" s="5">
         <v>5</v>
       </c>
       <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>11067</v>
+      </c>
+      <c r="B68" s="4">
+        <v>11067</v>
+      </c>
+      <c r="C68" s="5">
+        <v>67</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="6">
+        <v>5734.51</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="5">
+        <v>13</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="5">
+        <v>11</v>
+      </c>
+      <c r="K68" s="7">
+        <v>5</v>
+      </c>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>11068</v>
+      </c>
+      <c r="B69" s="5">
+        <v>11068</v>
+      </c>
+      <c r="C69" s="5">
+        <v>68</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="6">
+        <v>32969.03</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="5">
+        <v>13</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+      <c r="J69" s="5">
+        <v>11</v>
+      </c>
+      <c r="K69" s="7">
+        <v>18</v>
+      </c>
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>11069</v>
+      </c>
+      <c r="B70" s="4">
+        <v>11069</v>
+      </c>
+      <c r="C70" s="5">
+        <v>69</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="6">
+        <v>476.05</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="5">
+        <v>13</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5">
+        <v>11</v>
+      </c>
+      <c r="K70" s="7">
+        <v>15</v>
+      </c>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>11070</v>
+      </c>
+      <c r="B71" s="5">
+        <v>11070</v>
+      </c>
+      <c r="C71" s="5">
+        <v>70</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2946.9</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="5">
+        <v>13</v>
+      </c>
+      <c r="I71" s="5">
+        <v>1</v>
+      </c>
+      <c r="J71" s="5">
+        <v>11</v>
+      </c>
+      <c r="K71" s="7">
+        <v>10</v>
+      </c>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>11071</v>
+      </c>
+      <c r="B72" s="4">
+        <v>11071</v>
+      </c>
+      <c r="C72" s="5">
+        <v>71</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="6">
+        <v>3026.55</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="5">
+        <v>13</v>
+      </c>
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="5">
+        <v>11</v>
+      </c>
+      <c r="K72" s="7">
+        <v>5</v>
+      </c>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>11072</v>
+      </c>
+      <c r="B73" s="5">
+        <v>11072</v>
+      </c>
+      <c r="C73" s="5">
+        <v>72</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="6">
+        <v>3646.02</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="5">
+        <v>13</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5">
+        <v>11</v>
+      </c>
+      <c r="K73" s="7">
+        <v>5</v>
+      </c>
+      <c r="L73" s="8"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K76" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A2:J32">
